--- a/4APC_Projektstrukturplan_Edon_Abazi_fertig.xlsx
+++ b/4APC_Projektstrukturplan_Edon_Abazi_fertig.xlsx
@@ -474,13 +474,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,19 +513,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,41 +531,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,7 +864,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
     <col min="2" max="2" width="1.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="1.44140625" style="1" customWidth="1"/>
@@ -887,44 +887,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q2" s="10"/>
-      <c r="R2" s="30"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q4" s="10"/>
-      <c r="R4" s="30"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -948,7 +948,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="30"/>
+      <c r="R5" s="20"/>
     </row>
     <row r="6" spans="1:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
@@ -964,27 +964,27 @@
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
       <c r="M6" s="5"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1025,11 +1025,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" s="5"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1045,27 +1045,27 @@
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
       <c r="M10" s="5"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:20" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="30"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:20" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1082,7 +1082,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="30"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -1090,13 +1090,13 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1104,8 +1104,8 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:20" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -1127,11 +1127,11 @@
         <v>24</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="I15" s="9" t="s">
         <v>8</v>
       </c>
@@ -1140,464 +1140,467 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="27"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="17"/>
+      <c r="E17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="I17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="3:13" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="3:13" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="28" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="28" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="28" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="18" t="s">
         <v>35</v>
       </c>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="3:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="20"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="29"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="19"/>
       <c r="M22" s="10"/>
     </row>
     <row r="23" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="21" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="3:13" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="3:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C25" s="21" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="21" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="3:13" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="3:13" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="3:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="3:13" ht="4.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="3:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="33" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="28" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="28" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="28" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C35" s="21" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C35" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="21" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="21" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C37" s="21" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="21" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="21" t="s">
+      <c r="H37" s="12"/>
+      <c r="I37" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="41" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="28" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="21" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="21" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="21" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="21" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="49" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="28" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="28" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C51" s="21" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="21" t="s">
+      <c r="F51" s="12"/>
+      <c r="G51" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C53" s="21" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C53" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="21" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="21" t="s">
+      <c r="F53" s="12"/>
+      <c r="G53" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="57" spans="3:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C57" s="28" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="57" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="28" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="28" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="21" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C39:I39"/>
     <mergeCell ref="C47:I47"/>
@@ -1608,9 +1611,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="C11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
